--- a/results/pvalue_SIDER_all_target_AUPR+AUROCperdrug.xlsx
+++ b/results/pvalue_SIDER_all_target_AUPR+AUROCperdrug.xlsx
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16.785</t>
+          <t>15.246</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16.543</t>
+          <t>14.767</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.685</t>
+          <t>13.93</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>13.632</t>
+          <t>12.238</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>37.199</t>
+          <t>38.364</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>37.662</t>
+          <t>39.188</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>37.302</t>
+          <t>38.825</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>31.508</t>
+          <t>32.309</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>17.751</t>
+          <t>15.925</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
